--- a/DolphinApiTest/src/test/resources/SIT_TESTDATA.xlsx
+++ b/DolphinApiTest/src/test/resources/SIT_TESTDATA.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
   <si>
     <t xml:space="preserve">Test_Case</t>
   </si>
@@ -65,63 +65,117 @@
     <t xml:space="preserve">TC_001_Send The Valid Request</t>
   </si>
   <si>
-    <t xml:space="preserve">Y</t>
+    <t xml:space="preserve">Yes</t>
   </si>
   <si>
     <t xml:space="preserve">/developer/auth-token </t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{
+    "metadata": {
+        "X-App-ID": "IBPS",
+        "X-Correlation-ID": "31873127329799381273192"
+    },
+    "payload": {
+        "password": "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SWJwc0AxMjM=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">",
+        "username": "ibps"
+    }
+}</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">X-Client-Id:53jt873l753mcudrhqmuh3g5u8,X-api-key:DTUDHv9UVG8cVT3qmhiSv1UcnvCduzLf1CI6zCVY</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">{
+    "username":"ibps",
+     "password":"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SWJwc0AxMjM=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">"
+  }</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">payload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">token</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Success</t>
+  </si>
+  <si>
+    <t xml:space="preserve">msgInfo.msgCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Token generated successfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_002_Send The Request With Invalid Input Parameter</t>
+  </si>
+  <si>
     <t xml:space="preserve">{
-  "metadata":{
-    "appId":"IBPS",
-    "soaCorrelationId":"12221222211"
-  },
-  "payload":{
-    "username":"ibps",
-    "password":"Ibps@123"
-  }
-}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">X-Client-Id:53jt873l753mcudrhqmuh3g5u8,X-api-key:DTUDHv9UVG8cVT3qmhiSv1UcnvCduzLf1CI6zCVY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-    "username":"ibps",
-     "password":"Ibps@123"
-  }</t>
-  </si>
-  <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msgInfo.msgCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User Token generated successfully </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_002_Send The Request With Invalid Input Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
-  "metadata":{
-    "appId":"IBPS",
-    "soaCorrelationId":"12221222211"
-  },
-  "payload":{
-    "username":"Username",
-    "password":"Password"
-  }
+    "metadata": {
+        "X-App-ID": "IBPS",
+        "X-Correlation-ID": "31873127329799381273192"
+    },
+    "payload": {
+        "password": "",
+        "username": ""
+    }
 }</t>
   </si>
   <si>
@@ -145,9 +199,6 @@
   </si>
   <si>
     <t xml:space="preserve">TC_003_Send The Request with Empty Client ID </t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">X-api-key:DTUDHv9UVG8cVT3qmhiSv1UcnvCduzLf1CI6zCVY</t>
@@ -244,7 +295,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -272,6 +323,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -404,35 +461,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -516,7 +573,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -524,7 +581,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="24.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.14"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
@@ -578,7 +635,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="237.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="131.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -619,7 +676,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="237.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="131.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>25</v>
       </c>
@@ -629,7 +686,7 @@
       <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E3" s="3" t="s">
@@ -660,21 +717,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="237.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="131.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>18</v>
@@ -692,19 +749,18 @@
         <v>22</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L4" s="13" t="s">
         <v>23</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="{&#10;&#10;  &quot;metadata&quot;:{&#10;&#10;    &quot;appId&quot;:&quot;IBPS&quot;,&#10;&#10;    &quot;soaCorrelationId&quot;:&quot;12221222211&quot;&#10;&#10;  },&#10;&#10;  &quot;payload&quot;:{&#10;&#10;    &quot;username&quot;:&quot;ibps&quot;,&#10;&#10;    &quot;password&quot;:&quot;Ibps@123&quot;&#10;&#10;  }&#10;&#10;}"/>
-    <hyperlink ref="F3" r:id="rId2" display="{&#10;    &quot;username&quot;:&quot;ibps&quot;,&#10;     &quot;password&quot;:&quot;Ibps@1234&quot;&#10;&#10;  }"/>
+    <hyperlink ref="F3" r:id="rId1" display="{&#10;    &quot;username&quot;:&quot;ibps&quot;,&#10;     &quot;password&quot;:&quot;Ibps@1234&quot;&#10;&#10;  }"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -723,8 +779,8 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -757,13 +813,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
@@ -771,22 +827,22 @@
     </row>
     <row r="2" customFormat="false" ht="213.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>44</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>19</v>
@@ -795,27 +851,27 @@
         <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>19</v>
@@ -824,7 +880,7 @@
         <v>20</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>

--- a/DolphinApiTest/src/test/resources/SIT_TESTDATA.xlsx
+++ b/DolphinApiTest/src/test/resources/SIT_TESTDATA.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t xml:space="preserve">Test_Case</t>
   </si>
@@ -71,44 +71,16 @@
     <t xml:space="preserve">/developer/auth-token </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
+    <t xml:space="preserve">{
     "metadata": {
         "X-App-ID": "IBPS",
         "X-Correlation-ID": "31873127329799381273192"
     },
     "payload": {
-        "password": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SWJwc0AxMjM=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">",
+        "password": "SWJwc0AxMjM=",
         "username": "ibps"
     }
 }</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">X-Client-Id:53jt873l753mcudrhqmuh3g5u8,X-api-key:DTUDHv9UVG8cVT3qmhiSv1UcnvCduzLf1CI6zCVY</t>
@@ -131,6 +103,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SWJwc0AxMjM=</t>
     </r>
@@ -283,6 +256,9 @@
     <t xml:space="preserve">TC_002_Send the Invalid request</t>
   </si>
   <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
     <t xml:space="preserve">   {
    	"ageOfPayer": " "
    }</t>
@@ -295,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -323,12 +299,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -461,35 +431,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -572,8 +542,8 @@
   </sheetPr>
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F3" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -779,8 +749,8 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -859,7 +829,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
@@ -871,7 +841,7 @@
         <v>42</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>19</v>

--- a/DolphinApiTest/src/test/resources/SIT_TESTDATA.xlsx
+++ b/DolphinApiTest/src/test/resources/SIT_TESTDATA.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
   <si>
     <t xml:space="preserve">Test_Case</t>
   </si>
@@ -71,44 +71,16 @@
     <t xml:space="preserve">/developer/auth-token </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">{
+    <t xml:space="preserve">{
     "metadata": {
         "X-App-ID": "IBPS",
         "X-Correlation-ID": "31873127329799381273192"
     },
     "payload": {
-        "password": "</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">SWJwc0AxMjM=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF0000FF"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">",
+        "password": "SWJwc0AxMjM=",
         "username": "ibps"
     }
 }</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">X-Client-Id:53jt873l753mcudrhqmuh3g5u8,X-api-key:DTUDHv9UVG8cVT3qmhiSv1UcnvCduzLf1CI6zCVY</t>
@@ -131,6 +103,7 @@
         <color rgb="FF0000FF"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">SWJwc0AxMjM=</t>
     </r>
@@ -283,6 +256,9 @@
     <t xml:space="preserve">TC_002_Send the Invalid request</t>
   </si>
   <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
     <t xml:space="preserve">   {
    	"ageOfPayer": " "
    }</t>
@@ -295,7 +271,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -323,12 +299,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <u val="single"/>
@@ -461,35 +431,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -779,8 +749,8 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -859,7 +829,7 @@
         <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>40</v>
@@ -871,7 +841,7 @@
         <v>42</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>19</v>

--- a/DolphinApiTest/src/test/resources/SIT_TESTDATA.xlsx
+++ b/DolphinApiTest/src/test/resources/SIT_TESTDATA.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A494BADB-38AF-40D0-910D-FCB4B60DD8D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="16500" windowHeight="11820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="TokenApiTest" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="LE_FTSP" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="TokenApiTest" sheetId="1" r:id="rId1"/>
+    <sheet name="LE_FTSP" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="F3:L4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -21,57 +22,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="48">
-  <si>
-    <t xml:space="preserve">Test_Case</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RunMode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request_URL_End_Point</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request_Body</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request Headers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Input_Data</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status_Code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Response_PayLoad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseValue</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ResponseMessage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MessageCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PathOfMessageCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ErrorMessage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_001_Send The Valid Request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Yes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/developer/auth-token </t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+  <si>
+    <t>Test_Case</t>
+  </si>
+  <si>
+    <t>RunMode</t>
+  </si>
+  <si>
+    <t>Request_URL_End_Point</t>
+  </si>
+  <si>
+    <t>Request_Body</t>
+  </si>
+  <si>
+    <t>Request Headers</t>
+  </si>
+  <si>
+    <t>Input_Data</t>
+  </si>
+  <si>
+    <t>Status_Code</t>
+  </si>
+  <si>
+    <t>Response_PayLoad</t>
+  </si>
+  <si>
+    <t>ResponseValue</t>
+  </si>
+  <si>
+    <t>ResponseMessage</t>
+  </si>
+  <si>
+    <t>MessageCode</t>
+  </si>
+  <si>
+    <t>PathOfMessageCode</t>
+  </si>
+  <si>
+    <t>ErrorMessage</t>
+  </si>
+  <si>
+    <t>TC_001_Send The Valid Request</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>{
     "metadata": {
         "X-App-ID": "IBPS",
         "X-Correlation-ID": "31873127329799381273192"
@@ -83,9 +81,6 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">X-Client-Id:53jt873l753mcudrhqmuh3g5u8,X-api-key:DTUDHv9UVG8cVT3qmhiSv1UcnvCduzLf1CI6zCVY</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -93,7 +88,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">{
+      <t>{
     "username":"ibps",
      "password":"</t>
     </r>
@@ -105,7 +100,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">SWJwc0AxMjM=</t>
+      <t>SWJwc0AxMjM=</t>
     </r>
     <r>
       <rPr>
@@ -114,33 +109,33 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">"
+      <t>"
   }</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">payload</t>
-  </si>
-  <si>
-    <t xml:space="preserve">token</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Success</t>
-  </si>
-  <si>
-    <t xml:space="preserve">msgInfo.msgCode</t>
+    <t>200</t>
+  </si>
+  <si>
+    <t>payload</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>Success</t>
+  </si>
+  <si>
+    <t>msgInfo.msgCode</t>
   </si>
   <si>
     <t xml:space="preserve">User Token generated successfully </t>
   </si>
   <si>
-    <t xml:space="preserve">TC_002_Send The Request With Invalid Input Parameter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{
+    <t>TC_002_Send The Request With Invalid Input Parameter</t>
+  </si>
+  <si>
+    <t>{
     "metadata": {
         "X-App-ID": "IBPS",
         "X-Correlation-ID": "31873127329799381273192"
@@ -152,50 +147,47 @@
 }</t>
   </si>
   <si>
-    <t xml:space="preserve">{
+    <t>{
     "username":"ibps",
      "password":"Ibps@1234"
   }</t>
   </si>
   <si>
-    <t xml:space="preserve">Failure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">500</t>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>500</t>
   </si>
   <si>
     <t xml:space="preserve">msgInfo.msgCode
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Incorrect username or password.</t>
+    <t>Incorrect username or password.</t>
   </si>
   <si>
     <t xml:space="preserve">TC_003_Send The Request with Empty Client ID </t>
   </si>
   <si>
-    <t xml:space="preserve">X-api-key:DTUDHv9UVG8cVT3qmhiSv1UcnvCduzLf1CI6zCVY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandatory Parameter is missing or having invalid value – x-client-id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">InputData</t>
-  </si>
-  <si>
-    <t xml:space="preserve">StatusCode</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PayloadTag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_001_Send the valid request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/developer/microservices/mli/dolphin/api/LeMS/ftsp</t>
+    <t>400</t>
+  </si>
+  <si>
+    <t>Mandatory Parameter is missing or having invalid value – x-client-id</t>
+  </si>
+  <si>
+    <t>InputData</t>
+  </si>
+  <si>
+    <t>StatusCode</t>
+  </si>
+  <si>
+    <t>PayloadTag</t>
+  </si>
+  <si>
+    <t>TC_001_Send the valid request</t>
+  </si>
+  <si>
+    <t>/developer/microservices/mli/dolphin/api/LeMS/ftsp</t>
   </si>
   <si>
     <t xml:space="preserve">{
@@ -247,51 +239,42 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">{}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">null</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_002_Send the Invalid request</t>
-  </si>
-  <si>
-    <t xml:space="preserve">No</t>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>TC_002_Send the Invalid request</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
   <si>
     <t xml:space="preserve">   {
    	"ageOfPayer": " "
    }</t>
+  </si>
+  <si>
+    <t>/developer/auth</t>
+  </si>
+  <si>
+    <t>x-client-id:53jt873l753mcudrhqmuh3g5u8,x-api-key:DTUDHv9UVG8cVT3qmhiSv1UcnvCduzLf1CI6zCVY</t>
+  </si>
+  <si>
+    <t>x-api-key:DTUDHv9UVG8cVT3qmhiSv1UcnvCduzLf1CI6zCVY</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -301,7 +284,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF2A00FF"/>
       <name val="Arial"/>
@@ -319,7 +302,6 @@
       <sz val="11"/>
       <color rgb="FF2A00FF"/>
       <name val="Consolas"/>
-      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -345,133 +327,98 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="hair"/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -530,41 +477,349 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F3" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K5" activeCellId="0" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="36.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="27.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="25.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="18.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="17.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.47"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="20.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="35.29"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="14" style="0" width="11.52"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25.140625" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="10" width="17.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="12" max="12" width="20.85546875" customWidth="1"/>
+    <col min="13" max="13" width="35.28515625" customWidth="1"/>
+    <col min="14" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="131.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:13" ht="141" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -613,129 +868,128 @@
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="E2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="K2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="M2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="8" t="s">
+    </row>
+    <row r="3" spans="1:13" ht="141" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="131.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="3">
+        <v>200</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="K3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="10" t="s">
+      <c r="L3" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="11" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="141" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="M3" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="131.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>15</v>
+        <v>45</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="F4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="I4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="J4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="K4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="M4" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" display="{&#10;    &quot;username&quot;:&quot;ibps&quot;,&#10;     &quot;password&quot;:&quot;Ibps@1234&quot;&#10;&#10;  }"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
@@ -743,30 +997,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="95" zoomScaleNormal="95" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="27.35"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="34.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="17.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="20.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19.19"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="10" style="0" width="11.52"/>
+    <col min="1" max="2" width="11.5703125"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="30.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="19.140625" customWidth="1"/>
+    <col min="10" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -783,81 +1034,80 @@
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="213.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:9" ht="213.4" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E2" s="4" t="s">
+    </row>
+    <row r="3" spans="1:9" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="C3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="127.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="G3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/DolphinApiTest/src/test/resources/SIT_TESTDATA.xlsx
+++ b/DolphinApiTest/src/test/resources/SIT_TESTDATA.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A494BADB-38AF-40D0-910D-FCB4B60DD8D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{8544F813-61C5-4F1A-832B-A108EA2F4348}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="16500" windowHeight="11820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="16530" windowHeight="11820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TokenApiTest" sheetId="1" r:id="rId1"/>
     <sheet name="LE_FTSP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="F3:L4"/>
+  <oleSize ref="A3:F14"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -797,9 +797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView zoomScale="95" zoomScaleNormal="95" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1000,8 +998,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/DolphinApiTest/src/test/resources/SIT_TESTDATA.xlsx
+++ b/DolphinApiTest/src/test/resources/SIT_TESTDATA.xlsx
@@ -3,16 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{A494BADB-38AF-40D0-910D-FCB4B60DD8D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:801_{AA1EF7B7-5E66-4652-B1C1-B5BCFBEDC17F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="16500" windowHeight="11820" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="16530" windowHeight="11820" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TokenApiTest" sheetId="1" r:id="rId1"/>
     <sheet name="LE_FTSP" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="F3:L4"/>
+  <oleSize ref="A3:F14"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView topLeftCell="A4" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1000,8 +1000,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
